--- a/summary_reforms.xlsx
+++ b/summary_reforms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\master-thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7EB2BD-F0EB-4373-950B-72EA96C00526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5461DB85-DD2A-478D-8C6D-86BD0CA6CD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0B597DE7-93EB-4966-AE6E-2A58BB462FDD}"/>
+    <workbookView xWindow="16530" yWindow="0" windowWidth="12375" windowHeight="15585" xr2:uid="{0B597DE7-93EB-4966-AE6E-2A58BB462FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -157,11 +157,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +480,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,17 +495,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -530,17 +530,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
@@ -551,13 +551,13 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -565,7 +565,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -573,7 +573,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
